--- a/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES_SIGNIFICANT.xlsx
+++ b/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES_SIGNIFICANT.xlsx
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8415300546448086</v>
+        <v>-0.8437158469945354</v>
       </c>
     </row>
     <row r="3">
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.5830601092896176</v>
+        <v>-0.5836065573770493</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.5838797814207651</v>
+        <v>-0.5836065573770493</v>
       </c>
     </row>
     <row r="7">
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.5808743169398907</v>
+        <v>-0.5803278688524589</v>
       </c>
     </row>
   </sheetData>

--- a/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES_SIGNIFICANT.xlsx
+++ b/Tester Results/TEST_EXPERIMENT_ALL_VARIABLES_SIGNIFICANT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,336 +500,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>31.58287705326034</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01132585062828098</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-0.8437158469945354</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>31.58287705326034</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01132585062828098</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-0.8437158469945354</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>female</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>31.58287705326034</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01132585062828098</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.1044240442381257</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>gap_duration_4</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>tone_in_noise</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.8437158469945354</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>April16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>30.84355342354168</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0140886581352574</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="n">
-        <v>-0.5836065573770493</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>June26</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>30.84355342354168</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0140886581352574</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-0.5836065573770493</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>May20</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>percentPPI</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Kruskal-Wallis</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>30.84355342354168</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0140886581352574</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.448379671767127</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Dunn</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>gap_duration_8</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>offset_PPI_12</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.5803278688524589</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
